--- a/data/Prioridades/PC_VEHICULOS_Norm.xlsx
+++ b/data/Prioridades/PC_VEHICULOS_Norm.xlsx
@@ -343,7 +343,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>6.832460732984293</v>
+        <v>0.9595386058988489</v>
       </c>
       <c r="C3" s="4">
         <v>0.138</v>
@@ -354,7 +354,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>9.60015392670157</v>
+        <v>1.3482285043763544</v>
       </c>
       <c r="C4" s="4">
         <v>0.124</v>
@@ -365,7 +365,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>19.20030785340314</v>
+        <v>2.696457008752709</v>
       </c>
       <c r="C5" s="4">
         <v>0.069</v>
@@ -376,7 +376,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>25.963350785340314</v>
+        <v>3.6462467024156258</v>
       </c>
       <c r="C6" s="4">
         <v>0.063</v>
@@ -387,7 +387,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>28.800461780104712</v>
+        <v>4.044685513129064</v>
       </c>
       <c r="C7" s="4">
         <v>0.048</v>
@@ -398,7 +398,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>36.89528795811518</v>
+        <v>5.181508471853784</v>
       </c>
       <c r="C8" s="4">
         <v>0.04</v>
@@ -409,7 +409,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>38.40061570680628</v>
+        <v>5.392914017505418</v>
       </c>
       <c r="C9" s="4">
         <v>0.034</v>
@@ -420,7 +420,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>48.00076963350785</v>
+        <v>6.741142521881772</v>
       </c>
       <c r="C10" s="4">
         <v>0.026</v>
